--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,129 +49,123 @@
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>beautiful</t>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>glad</t>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>husband</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>husband</t>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cake</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>comfortable</t>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>tea</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
     <t>old</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
     <t>kitchen</t>
   </si>
   <si>
+    <t>cook</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
     <t>pan</t>
   </si>
   <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
@@ -181,19 +175,22 @@
     <t>little</t>
   </si>
   <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>coffee</t>
+    <t>like</t>
   </si>
   <si>
     <t>quality</t>
-  </si>
-  <si>
-    <t>like</t>
   </si>
   <si>
     <t>one</t>
@@ -560,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,7 +568,7 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,13 +626,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.2790697674418605</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -647,19 +644,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K3">
-        <v>0.9354838709677419</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -671,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -679,13 +676,13 @@
         <v>11</v>
       </c>
       <c r="K4">
-        <v>0.90625</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -697,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -705,13 +702,13 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <v>0.8405797101449275</v>
+        <v>0.8515625</v>
       </c>
       <c r="L5">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -723,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -731,13 +728,13 @@
         <v>13</v>
       </c>
       <c r="K6">
-        <v>0.8390092879256966</v>
+        <v>0.8498452012383901</v>
       </c>
       <c r="L6">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="M6">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -749,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -757,13 +754,13 @@
         <v>14</v>
       </c>
       <c r="K7">
-        <v>0.8043478260869565</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -775,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -783,13 +780,13 @@
         <v>15</v>
       </c>
       <c r="K8">
-        <v>0.7229437229437229</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L8">
-        <v>167</v>
+        <v>55</v>
       </c>
       <c r="M8">
-        <v>167</v>
+        <v>55</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -801,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -809,13 +806,13 @@
         <v>16</v>
       </c>
       <c r="K9">
-        <v>0.7050847457627119</v>
+        <v>0.7056277056277056</v>
       </c>
       <c r="L9">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="M9">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -827,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -835,13 +832,13 @@
         <v>17</v>
       </c>
       <c r="K10">
-        <v>0.7012987012987013</v>
+        <v>0.6915254237288135</v>
       </c>
       <c r="L10">
-        <v>54</v>
+        <v>204</v>
       </c>
       <c r="M10">
-        <v>54</v>
+        <v>204</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -853,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -861,13 +858,13 @@
         <v>18</v>
       </c>
       <c r="K11">
-        <v>0.6818181818181818</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -879,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -887,13 +884,13 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <v>0.6764705882352942</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -905,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -913,13 +910,13 @@
         <v>20</v>
       </c>
       <c r="K13">
-        <v>0.6712328767123288</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L13">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -931,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -939,13 +936,13 @@
         <v>21</v>
       </c>
       <c r="K14">
-        <v>0.640625</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L14">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M14">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -957,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -965,13 +962,13 @@
         <v>22</v>
       </c>
       <c r="K15">
-        <v>0.6396468699839486</v>
+        <v>0.640625</v>
       </c>
       <c r="L15">
-        <v>797</v>
+        <v>41</v>
       </c>
       <c r="M15">
-        <v>797</v>
+        <v>41</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -983,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>449</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -991,13 +988,13 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>0.6228571428571429</v>
+        <v>0.6342857142857142</v>
       </c>
       <c r="L16">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M16">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1009,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1017,13 +1014,13 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <v>0.6197183098591549</v>
+        <v>0.6324237560192616</v>
       </c>
       <c r="L17">
-        <v>44</v>
+        <v>788</v>
       </c>
       <c r="M17">
-        <v>44</v>
+        <v>788</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1035,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1043,13 +1040,13 @@
         <v>25</v>
       </c>
       <c r="K18">
-        <v>0.6041666666666666</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1061,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1069,13 +1066,13 @@
         <v>26</v>
       </c>
       <c r="K19">
-        <v>0.5982905982905983</v>
+        <v>0.5972222222222222</v>
       </c>
       <c r="L19">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="M19">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1087,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1095,13 +1092,13 @@
         <v>27</v>
       </c>
       <c r="K20">
-        <v>0.5857142857142857</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L20">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1113,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1121,13 +1118,13 @@
         <v>28</v>
       </c>
       <c r="K21">
-        <v>0.5789473684210527</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1139,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1147,13 +1144,13 @@
         <v>29</v>
       </c>
       <c r="K22">
-        <v>0.5384615384615384</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1165,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>30</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1173,13 +1170,13 @@
         <v>30</v>
       </c>
       <c r="K23">
-        <v>0.5269461077844312</v>
+        <v>0.4970059880239521</v>
       </c>
       <c r="L23">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M23">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1191,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1199,13 +1196,13 @@
         <v>31</v>
       </c>
       <c r="K24">
-        <v>0.5138888888888888</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="L24">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="M24">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1217,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1225,13 +1222,13 @@
         <v>32</v>
       </c>
       <c r="K25">
-        <v>0.5096153846153846</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L25">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1243,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1251,13 +1248,13 @@
         <v>33</v>
       </c>
       <c r="K26">
-        <v>0.5037593984962406</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="L26">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="M26">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1269,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1277,13 +1274,13 @@
         <v>34</v>
       </c>
       <c r="K27">
-        <v>0.4918032786885246</v>
+        <v>0.43</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1295,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1303,13 +1300,13 @@
         <v>35</v>
       </c>
       <c r="K28">
-        <v>0.4868421052631579</v>
+        <v>0.427710843373494</v>
       </c>
       <c r="L28">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="M28">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1321,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>39</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1329,13 +1326,13 @@
         <v>36</v>
       </c>
       <c r="K29">
-        <v>0.4698795180722892</v>
+        <v>0.4100719424460432</v>
       </c>
       <c r="L29">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="M29">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1347,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>44</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1355,13 +1352,13 @@
         <v>37</v>
       </c>
       <c r="K30">
-        <v>0.4567901234567901</v>
+        <v>0.3815789473684211</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1373,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1381,13 +1378,13 @@
         <v>38</v>
       </c>
       <c r="K31">
-        <v>0.42</v>
+        <v>0.3504901960784313</v>
       </c>
       <c r="L31">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="M31">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1399,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>58</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1407,13 +1404,13 @@
         <v>39</v>
       </c>
       <c r="K32">
-        <v>0.3855421686746988</v>
+        <v>0.3424124513618677</v>
       </c>
       <c r="L32">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="M32">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1425,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>102</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1433,13 +1430,13 @@
         <v>40</v>
       </c>
       <c r="K33">
-        <v>0.3480392156862745</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="L33">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="M33">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1451,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>266</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1459,13 +1456,13 @@
         <v>41</v>
       </c>
       <c r="K34">
-        <v>0.3479452054794521</v>
+        <v>0.326027397260274</v>
       </c>
       <c r="L34">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="M34">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1477,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>476</v>
+        <v>492</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1485,13 +1482,13 @@
         <v>42</v>
       </c>
       <c r="K35">
-        <v>0.3346303501945525</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L35">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="M35">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1503,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>171</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1511,13 +1508,13 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>0.316546762589928</v>
+        <v>0.2870813397129187</v>
       </c>
       <c r="L36">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="M36">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1529,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>95</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1537,13 +1534,13 @@
         <v>44</v>
       </c>
       <c r="K37">
-        <v>0.2932330827067669</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L37">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M37">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1555,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1563,13 +1560,13 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>0.2882882882882883</v>
+        <v>0.2508073196986007</v>
       </c>
       <c r="L38">
-        <v>32</v>
+        <v>233</v>
       </c>
       <c r="M38">
-        <v>32</v>
+        <v>233</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1581,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>79</v>
+        <v>696</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1589,13 +1586,13 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>0.2727272727272727</v>
+        <v>0.219435736677116</v>
       </c>
       <c r="L39">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="M39">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1607,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>152</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1615,13 +1612,13 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>0.2572658772874058</v>
+        <v>0.1986754966887417</v>
       </c>
       <c r="L40">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="M40">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1633,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>690</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1641,13 +1638,13 @@
         <v>48</v>
       </c>
       <c r="K41">
-        <v>0.2351097178683386</v>
+        <v>0.1973509933774834</v>
       </c>
       <c r="L41">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="M41">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1659,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>244</v>
+        <v>606</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1667,25 +1664,25 @@
         <v>49</v>
       </c>
       <c r="K42">
-        <v>0.2010243277848912</v>
+        <v>0.1828644501278772</v>
       </c>
       <c r="L42">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="M42">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="N42">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>624</v>
+        <v>639</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1693,13 +1690,13 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>0.1947019867549669</v>
+        <v>0.1725067385444744</v>
       </c>
       <c r="L43">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="M43">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1711,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>608</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1719,13 +1716,13 @@
         <v>51</v>
       </c>
       <c r="K44">
-        <v>0.1920529801324503</v>
+        <v>0.1508515815085158</v>
       </c>
       <c r="L44">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="M44">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1737,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>122</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1745,25 +1742,25 @@
         <v>52</v>
       </c>
       <c r="K45">
-        <v>0.1544715447154472</v>
+        <v>0.140893470790378</v>
       </c>
       <c r="L45">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M45">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="N45">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>312</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1771,13 +1768,13 @@
         <v>53</v>
       </c>
       <c r="K46">
-        <v>0.1411192214111922</v>
+        <v>0.125</v>
       </c>
       <c r="L46">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M46">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1789,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>353</v>
+        <v>385</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1797,13 +1794,13 @@
         <v>54</v>
       </c>
       <c r="K47">
-        <v>0.127147766323024</v>
+        <v>0.1222222222222222</v>
       </c>
       <c r="L47">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M47">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1815,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1823,13 +1820,13 @@
         <v>55</v>
       </c>
       <c r="K48">
-        <v>0.1228070175438596</v>
+        <v>0.1217712177121771</v>
       </c>
       <c r="L48">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M48">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1841,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>400</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1849,25 +1846,25 @@
         <v>56</v>
       </c>
       <c r="K49">
-        <v>0.1143911439114391</v>
+        <v>0.1076923076923077</v>
       </c>
       <c r="L49">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="M49">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>240</v>
+        <v>406</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1875,25 +1872,25 @@
         <v>57</v>
       </c>
       <c r="K50">
-        <v>0.1090909090909091</v>
+        <v>0.08321377331420372</v>
       </c>
       <c r="L50">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="M50">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>392</v>
+        <v>639</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1901,13 +1898,13 @@
         <v>58</v>
       </c>
       <c r="K51">
-        <v>0.0954653937947494</v>
+        <v>0.07637231503579953</v>
       </c>
       <c r="L51">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M51">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1919,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1927,25 +1924,25 @@
         <v>59</v>
       </c>
       <c r="K52">
-        <v>0.08751793400286945</v>
+        <v>0.06355140186915888</v>
       </c>
       <c r="L52">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="M52">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="N52">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O52">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>636</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -1953,51 +1950,25 @@
         <v>60</v>
       </c>
       <c r="K53">
-        <v>0.08022388059701492</v>
+        <v>0.04163052905464007</v>
       </c>
       <c r="L53">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="M53">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K54">
-        <v>0.03546712802768166</v>
-      </c>
-      <c r="L54">
-        <v>41</v>
-      </c>
-      <c r="M54">
-        <v>42</v>
-      </c>
-      <c r="N54">
-        <v>0.98</v>
-      </c>
-      <c r="O54">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P54" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q54">
-        <v>1115</v>
+        <v>1105</v>
       </c>
     </row>
   </sheetData>
